--- a/export/Reports/NON-contract_workbook_Template.xlsx
+++ b/export/Reports/NON-contract_workbook_Template.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="939" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016" tabRatio="939"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="82">
   <si>
     <t xml:space="preserve"> </t>
   </si>
@@ -247,9 +247,6 @@
     <t>Do the activities performed have any variance across the Services?</t>
   </si>
   <si>
-    <t>Will the number of times the activity is performed change once DHMSM comes online?</t>
-  </si>
-  <si>
     <t xml:space="preserve">1. What systems are the upstream and down streams for a given interface? </t>
   </si>
   <si>
@@ -259,9 +256,6 @@
     <t>6. Do the activities performed have any variance across the Services?</t>
   </si>
   <si>
-    <t>7. Will the number of times the activity is performed change once DHMSM comes online?</t>
-  </si>
-  <si>
     <t>Receiving System</t>
   </si>
   <si>
@@ -289,9 +283,6 @@
     <t>@SYSTEM@</t>
   </si>
   <si>
-    <t>This report breaks out the required transition costs to migrate @SYSTEM@ to the future-state environment and support the DHMSM EHR capability. The transition costs are broken into three categories: (1) interface modernization costs, which address the investment requried to modernize the interfaces in order to support data exchange between @SYSTEM@ and the DHMSM EHR; (2) hardware and software modernization costs required to ensure that technical support for @SYSTEM@ is available; and (3) DIACAP costs required to maintain the IA posture of @SYSTEM@.</t>
-  </si>
-  <si>
     <t>@SYSTEM@ Transition Cost Total</t>
   </si>
   <si>
@@ -308,41 +299,47 @@
   </si>
   <si>
     <t xml:space="preserve"> @SYSTEM@ Not Source of Record </t>
+  </si>
+  <si>
+    <t>Is IOC Site?</t>
+  </si>
+  <si>
+    <t>1. Does @SYSTEM@ have the capacity to support the interfaces in terms of people, resources (funding), infrastructure (network), and existing h/w &amp; s/w</t>
+  </si>
+  <si>
+    <t>2. Does @SYSTEM@ have a contract in place with available ceiling and clins for doing the interface development work?</t>
+  </si>
+  <si>
+    <t>2. Is @SYSTEM@ the Source of Record for this data?</t>
+  </si>
+  <si>
+    <t>3. If @SYSTEM@ is not the Source of Record for this data, is there an alternate data source that the information could come from/send to?</t>
+  </si>
+  <si>
+    <t>4. If @SYSTEM@ is distributing data elements to other systems, is it delivering the full set of elements, or a sub-set of elements per data object?</t>
+  </si>
+  <si>
+    <t>8. What DCSites are @SYSTEM@ deployed at? System located at IOC?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">This section defines the current interfaces for @SYSTEM@. </t>
+  </si>
+  <si>
+    <t xml:space="preserve">If @SYSTEM@ is not the Source of Record for the Data Object(s), please validate that @SYSTEM@ recieves the Data Object(s) from the listed systems in the table below. </t>
   </si>
   <si>
     <t>This report details the characteristics and modernization activities required to transition the LPI system to the future-state environment. The report provides the following information and analysis regarding the LPI system:
 1. Additional Questions - Please provide the requested information to the SDD-OTM team. 
-2. Transition Costs Estimates - This report breaks out the required transition costs to migrate @SYSTEM@ to the future-state environment and support the DHMSM EHR capability. Additionally, this tab defines the future interfaces for @SYSTEM@ that will continue to be supported as the system is transitioned to the future-state environment.</t>
-  </si>
-  <si>
-    <t>Is IOC Site?</t>
-  </si>
-  <si>
-    <t>1. Does @SYSTEM@ have the capacity to support the interfaces in terms of people, resources (funding), infrastructure (network), and existing h/w &amp; s/w</t>
-  </si>
-  <si>
-    <t>2. Does @SYSTEM@ have a contract in place with available ceiling and clins for doing the interface development work?</t>
-  </si>
-  <si>
-    <t>2. Is @SYSTEM@ the Source of Record for this data?</t>
-  </si>
-  <si>
-    <t>3. If @SYSTEM@ is not the Source of Record for this data, is there an alternate data source that the information could come from/send to?</t>
-  </si>
-  <si>
-    <t>4. If @SYSTEM@ is distributing data elements to other systems, is it delivering the full set of elements, or a sub-set of elements per data object?</t>
-  </si>
-  <si>
-    <t>8. What DCSites are @SYSTEM@ deployed at? System located at IOC?</t>
-  </si>
-  <si>
-    <t xml:space="preserve">This section defines the current interfaces for @SYSTEM@. </t>
-  </si>
-  <si>
-    <t xml:space="preserve">If @SYSTEM@ is not the Source of Record for the Data Object(s), please validate that @SYSTEM@ recieves the Data Object(s) from the listed systems in the table below. </t>
-  </si>
-  <si>
-    <t>:P</t>
+2. Transition Costs Estimates - This report breaks out the required transition costs to migrate @SYSTEM@ to the future-state environment and support MHS GENESIS. Additionally, this tab defines the future interfaces for @SYSTEM@ that will continue to be supported as the system is transitioned to the future-state environment.</t>
+  </si>
+  <si>
+    <t>7. Will the number of times the activity is performed change once MHS GENESIS comes online?</t>
+  </si>
+  <si>
+    <t>This report breaks out the required transition costs to migrate @SYSTEM@ to the future-state environment and support MHS GENESIS. The transition costs are broken into three categories: (1) interface modernization costs, which address the investment requried to modernize the interfaces in order to support data exchange between @SYSTEM@ and MHS GENESIS; (2) hardware and software modernization costs required to ensure that technical support for @SYSTEM@ is available; and (3) DIACAP costs required to maintain the IA posture of @SYSTEM@.</t>
+  </si>
+  <si>
+    <t>Will the number of times the activity is performed change once MHS GENESIS comes online?</t>
   </si>
 </sst>
 </file>
@@ -1755,15 +1752,15 @@
   <sheetPr>
     <tabColor rgb="FF002060"/>
   </sheetPr>
-  <dimension ref="A1:X7"/>
+  <dimension ref="A1:P7"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="X4" sqref="X4"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6:L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <sheetData>
-    <row r="1" spans="1:24">
+    <row r="1" spans="1:16">
       <c r="A1" s="68" t="s">
         <v>0</v>
       </c>
@@ -1779,7 +1776,7 @@
       <c r="K1" s="68"/>
       <c r="L1" s="68"/>
     </row>
-    <row r="2" spans="1:24" ht="21">
+    <row r="2" spans="1:16" ht="21">
       <c r="A2" s="70" t="s">
         <v>1</v>
       </c>
@@ -1795,7 +1792,7 @@
       <c r="K2" s="71"/>
       <c r="L2" s="72"/>
     </row>
-    <row r="3" spans="1:24" ht="161.4" customHeight="1">
+    <row r="3" spans="1:16" ht="161.4" customHeight="1">
       <c r="A3" s="73" t="s">
         <v>47</v>
       </c>
@@ -1811,11 +1808,8 @@
       <c r="K3" s="74"/>
       <c r="L3" s="74"/>
       <c r="P3" s="33"/>
-      <c r="X3" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="4" spans="1:24">
+    </row>
+    <row r="4" spans="1:16">
       <c r="A4" s="69" t="s">
         <v>0</v>
       </c>
@@ -1831,7 +1825,7 @@
       <c r="K4" s="69"/>
       <c r="L4" s="69"/>
     </row>
-    <row r="5" spans="1:24" ht="21">
+    <row r="5" spans="1:16" ht="21">
       <c r="A5" s="75" t="s">
         <v>2</v>
       </c>
@@ -1847,9 +1841,9 @@
       <c r="K5" s="76"/>
       <c r="L5" s="77"/>
     </row>
-    <row r="6" spans="1:24" ht="130.80000000000001" customHeight="1">
+    <row r="6" spans="1:16" ht="130.80000000000001" customHeight="1">
       <c r="A6" s="65" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B6" s="66"/>
       <c r="C6" s="66"/>
@@ -1863,7 +1857,7 @@
       <c r="K6" s="66"/>
       <c r="L6" s="67"/>
     </row>
-    <row r="7" spans="1:24">
+    <row r="7" spans="1:16">
       <c r="A7" s="24"/>
       <c r="B7" s="24"/>
       <c r="C7" s="24"/>
@@ -1898,8 +1892,8 @@
   </sheetPr>
   <dimension ref="A1:C14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -1919,22 +1913,22 @@
     </row>
     <row r="2" spans="1:3" ht="57.6">
       <c r="A2" s="32" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B2" s="34"/>
     </row>
     <row r="3" spans="1:3" ht="43.2">
       <c r="A3" s="35" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="B3" s="34"/>
     </row>
     <row r="4" spans="1:3" ht="29.4" customHeight="1">
       <c r="A4" s="35" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B4" s="34" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:3" s="31" customFormat="1" ht="14.4">
@@ -1952,7 +1946,7 @@
     </row>
     <row r="7" spans="1:3" s="31" customFormat="1" ht="33.6" customHeight="1">
       <c r="A7" s="35" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B7" s="34" t="s">
         <v>46</v>
@@ -1960,7 +1954,7 @@
     </row>
     <row r="8" spans="1:3" ht="25.8" customHeight="1">
       <c r="A8" s="35" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="B8" s="34" t="s">
         <v>43</v>
@@ -1968,7 +1962,7 @@
     </row>
     <row r="9" spans="1:3" ht="43.2">
       <c r="A9" s="35" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B9" s="34" t="s">
         <v>43</v>
@@ -1976,7 +1970,7 @@
     </row>
     <row r="10" spans="1:3" ht="57.6">
       <c r="A10" s="35" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B10" s="34" t="s">
         <v>44</v>
@@ -1984,7 +1978,7 @@
     </row>
     <row r="11" spans="1:3" ht="28.8">
       <c r="A11" s="35" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B11" s="34" t="s">
         <v>39</v>
@@ -1992,7 +1986,7 @@
     </row>
     <row r="12" spans="1:3" ht="28.8">
       <c r="A12" s="32" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B12" s="38" t="s">
         <v>39</v>
@@ -2000,7 +1994,7 @@
     </row>
     <row r="13" spans="1:3" ht="28.8">
       <c r="A13" s="32" t="s">
-        <v>55</v>
+        <v>79</v>
       </c>
       <c r="B13" s="34" t="s">
         <v>39</v>
@@ -2008,7 +2002,7 @@
     </row>
     <row r="14" spans="1:3" ht="27.6" customHeight="1">
       <c r="A14" s="35" t="s">
-        <v>79</v>
+        <v>75</v>
       </c>
       <c r="B14" s="34" t="s">
         <v>45</v>
@@ -2031,8 +2025,8 @@
   </sheetPr>
   <dimension ref="A1:K36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33:B33"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -2045,7 +2039,7 @@
   <sheetData>
     <row r="1" spans="1:11">
       <c r="A1" s="80" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B1" s="80"/>
       <c r="C1" s="80"/>
@@ -2075,7 +2069,7 @@
     </row>
     <row r="4" spans="1:11" ht="81.75" customHeight="1">
       <c r="A4" s="82" t="s">
-        <v>65</v>
+        <v>80</v>
       </c>
       <c r="B4" s="82"/>
       <c r="C4" s="82"/>
@@ -2091,7 +2085,7 @@
     <row r="5" spans="1:11" ht="15" thickBot="1"/>
     <row r="6" spans="1:11">
       <c r="A6" s="83" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="B6" s="84"/>
       <c r="C6" s="51" t="s">
@@ -2617,7 +2611,7 @@
     </row>
     <row r="28" spans="1:8" ht="15" thickBot="1">
       <c r="A28" s="97" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B28" s="98"/>
       <c r="C28" s="5">
@@ -2648,11 +2642,11 @@
     <row r="32" spans="1:8" ht="15" thickBot="1"/>
     <row r="33" spans="1:7" ht="33.6" thickBot="1">
       <c r="A33" s="99" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B33" s="100"/>
       <c r="C33" s="85" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="D33" s="86"/>
       <c r="E33" s="86"/>
@@ -2743,7 +2737,7 @@
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" s="58" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
     </row>
     <row r="2" spans="1:2">
@@ -2764,7 +2758,7 @@
     </row>
     <row r="4" spans="1:2">
       <c r="A4" s="59" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B4" s="60">
         <v>1.7999999999999999E-2</v>
@@ -2801,10 +2795,10 @@
   <sheetData>
     <row r="1" spans="1:7" s="31" customFormat="1" ht="99.6" customHeight="1" thickBot="1">
       <c r="A1" s="64" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="B1" s="101" t="s">
-        <v>80</v>
+        <v>76</v>
       </c>
       <c r="C1" s="102"/>
       <c r="D1" s="103"/>
@@ -2820,7 +2814,7 @@
         <v>26</v>
       </c>
       <c r="D3" s="55" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="4" spans="1:7" ht="14.4">
@@ -2828,15 +2822,15 @@
       <c r="B4" s="62"/>
       <c r="C4" s="63"/>
       <c r="D4" s="27" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="G4" s="50" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="5" spans="1:7">
       <c r="G5" s="50" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" spans="12:12">
@@ -2888,7 +2882,7 @@
       <c r="B1" s="108"/>
       <c r="C1" s="108"/>
       <c r="G1" s="110" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="H1" s="111"/>
       <c r="I1" s="112"/>
@@ -2904,7 +2898,7 @@
         <v>34</v>
       </c>
       <c r="G2" s="104" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="H2" s="105"/>
       <c r="I2" s="106"/>
@@ -2990,7 +2984,7 @@
       </c>
       <c r="E1" s="48"/>
       <c r="H1" s="113" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="I1" s="113"/>
       <c r="J1" s="113"/>
@@ -3002,13 +2996,13 @@
       <c r="D2" s="27"/>
       <c r="E2" s="37"/>
       <c r="H2" s="46" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="I2" s="46" t="s">
         <v>33</v>
       </c>
       <c r="J2" s="47" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:10">
@@ -3055,7 +3049,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A7" sqref="A7:D7"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2"/>
@@ -3083,7 +3077,7 @@
     </row>
     <row r="3" spans="1:4" ht="48.6" customHeight="1">
       <c r="A3" s="32" t="s">
-        <v>51</v>
+        <v>81</v>
       </c>
       <c r="B3" s="34"/>
     </row>
@@ -3157,7 +3151,7 @@
         <v>40</v>
       </c>
       <c r="C1" s="55" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D1" s="28" t="s">
         <v>34</v>
